--- a/natmiOut/OldD2/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.5431911792088</v>
+        <v>14.557829</v>
       </c>
       <c r="H2">
-        <v>14.5431911792088</v>
+        <v>29.115658</v>
       </c>
       <c r="I2">
-        <v>0.06268916004431925</v>
+        <v>0.05742693398771809</v>
       </c>
       <c r="J2">
-        <v>0.06268916004431925</v>
+        <v>0.04006068679199272</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.869550885061938</v>
+        <v>0.9656039999999999</v>
       </c>
       <c r="N2">
-        <v>0.869550885061938</v>
+        <v>1.931208</v>
       </c>
       <c r="O2">
-        <v>0.002051281565196635</v>
+        <v>0.002170982161762563</v>
       </c>
       <c r="P2">
-        <v>0.002051281565196635</v>
+        <v>0.001450469595059265</v>
       </c>
       <c r="Q2">
-        <v>12.64604476150598</v>
+        <v>14.057097913716</v>
       </c>
       <c r="R2">
-        <v>12.64604476150598</v>
+        <v>56.22839165486399</v>
       </c>
       <c r="S2">
-        <v>0.0001285931183365735</v>
+        <v>0.0001246728492920522</v>
       </c>
       <c r="T2">
-        <v>0.0001285931183365735</v>
+        <v>5.810680814897772E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.5431911792088</v>
+        <v>14.557829</v>
       </c>
       <c r="H3">
-        <v>14.5431911792088</v>
+        <v>29.115658</v>
       </c>
       <c r="I3">
-        <v>0.06268916004431925</v>
+        <v>0.05742693398771809</v>
       </c>
       <c r="J3">
-        <v>0.06268916004431925</v>
+        <v>0.04006068679199272</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.13757703897734</v>
+        <v>1.140421</v>
       </c>
       <c r="N3">
-        <v>1.13757703897734</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O3">
-        <v>0.002683558661295569</v>
+        <v>0.002564025882141566</v>
       </c>
       <c r="P3">
-        <v>0.002683558661295569</v>
+        <v>0.00256960304545199</v>
       </c>
       <c r="Q3">
-        <v>16.54400035892572</v>
+        <v>16.602053906009</v>
       </c>
       <c r="R3">
-        <v>16.54400035892572</v>
+        <v>99.61232343605401</v>
       </c>
       <c r="S3">
-        <v>0.000168230038406277</v>
+        <v>0.0001472441450765443</v>
       </c>
       <c r="T3">
-        <v>0.000168230038406277</v>
+        <v>0.0001029400627836028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.5431911792088</v>
+        <v>14.557829</v>
       </c>
       <c r="H4">
-        <v>14.5431911792088</v>
+        <v>29.115658</v>
       </c>
       <c r="I4">
-        <v>0.06268916004431925</v>
+        <v>0.05742693398771809</v>
       </c>
       <c r="J4">
-        <v>0.06268916004431925</v>
+        <v>0.04006068679199272</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>161.86845094668</v>
+        <v>181.6731516666667</v>
       </c>
       <c r="N4">
-        <v>161.86845094668</v>
+        <v>545.019455</v>
       </c>
       <c r="O4">
-        <v>0.3818497285414291</v>
+        <v>0.408458510465489</v>
       </c>
       <c r="P4">
-        <v>0.3818497285414291</v>
+        <v>0.4093469725649807</v>
       </c>
       <c r="Q4">
-        <v>2354.083827999949</v>
+        <v>2644.766675854398</v>
       </c>
       <c r="R4">
-        <v>2354.083827999949</v>
+        <v>15868.60005512639</v>
       </c>
       <c r="S4">
-        <v>0.02393783874541351</v>
+        <v>0.02345651991722329</v>
       </c>
       <c r="T4">
-        <v>0.02393783874541351</v>
+        <v>0.01639872085717613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.5431911792088</v>
+        <v>14.557829</v>
       </c>
       <c r="H5">
-        <v>14.5431911792088</v>
+        <v>29.115658</v>
       </c>
       <c r="I5">
-        <v>0.06268916004431925</v>
+        <v>0.05742693398771809</v>
       </c>
       <c r="J5">
-        <v>0.06268916004431925</v>
+        <v>0.04006068679199272</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>255.805312449944</v>
+        <v>256.3297323333333</v>
       </c>
       <c r="N5">
-        <v>255.805312449944</v>
+        <v>768.9891969999999</v>
       </c>
       <c r="O5">
-        <v>0.6034479761015469</v>
+        <v>0.5763100364383734</v>
       </c>
       <c r="P5">
-        <v>0.6034479761015469</v>
+        <v>0.5775636022518233</v>
       </c>
       <c r="Q5">
-        <v>3720.225563616777</v>
+        <v>3731.604410924437</v>
       </c>
       <c r="R5">
-        <v>3720.225563616777</v>
+        <v>22389.62646554662</v>
       </c>
       <c r="S5">
-        <v>0.03782964675225041</v>
+        <v>0.03309571841900587</v>
       </c>
       <c r="T5">
-        <v>0.03782964675225041</v>
+        <v>0.02313759457226536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.5431911792088</v>
+        <v>14.557829</v>
       </c>
       <c r="H6">
-        <v>14.5431911792088</v>
+        <v>29.115658</v>
       </c>
       <c r="I6">
-        <v>0.06268916004431925</v>
+        <v>0.05742693398771809</v>
       </c>
       <c r="J6">
-        <v>0.06268916004431925</v>
+        <v>0.04006068679199272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.52454217162138</v>
+        <v>2.738101</v>
       </c>
       <c r="N6">
-        <v>2.52454217162138</v>
+        <v>8.214303000000001</v>
       </c>
       <c r="O6">
-        <v>0.005955426998202121</v>
+        <v>0.006156114129709733</v>
       </c>
       <c r="P6">
-        <v>0.005955426998202121</v>
+        <v>0.006169504655171326</v>
       </c>
       <c r="Q6">
-        <v>36.71489944186468</v>
+        <v>39.860806142729</v>
       </c>
       <c r="R6">
-        <v>36.71489944186468</v>
+        <v>239.164836856374</v>
       </c>
       <c r="S6">
-        <v>0.0003733407162225526</v>
+        <v>0.0003535267597476994</v>
       </c>
       <c r="T6">
-        <v>0.0003733407162225526</v>
+        <v>0.0002471545936525595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.5431911792088</v>
+        <v>14.557829</v>
       </c>
       <c r="H7">
-        <v>14.5431911792088</v>
+        <v>29.115658</v>
       </c>
       <c r="I7">
-        <v>0.06268916004431925</v>
+        <v>0.05742693398771809</v>
       </c>
       <c r="J7">
-        <v>0.06268916004431925</v>
+        <v>0.04006068679199272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.70072342702804</v>
+        <v>1.9304815</v>
       </c>
       <c r="N7">
-        <v>1.70072342702804</v>
+        <v>3.860963</v>
       </c>
       <c r="O7">
-        <v>0.004012028132329674</v>
+        <v>0.004340330922523763</v>
       </c>
       <c r="P7">
-        <v>0.004012028132329674</v>
+        <v>0.00289984788751331</v>
       </c>
       <c r="Q7">
-        <v>24.73394594222795</v>
+        <v>28.1036195646635</v>
       </c>
       <c r="R7">
-        <v>24.73394594222795</v>
+        <v>112.414478258654</v>
       </c>
       <c r="S7">
-        <v>0.0002515106736899262</v>
+        <v>0.0002492518973726237</v>
       </c>
       <c r="T7">
-        <v>0.0002515106736899262</v>
+        <v>0.0001161698979660925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>184.381309238869</v>
+        <v>199.4383063333333</v>
       </c>
       <c r="H8">
-        <v>184.381309238869</v>
+        <v>598.314919</v>
       </c>
       <c r="I8">
-        <v>0.7947849451763456</v>
+        <v>0.7867334100727953</v>
       </c>
       <c r="J8">
-        <v>0.7947849451763456</v>
+        <v>0.8232308049859459</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.869550885061938</v>
+        <v>0.9656039999999999</v>
       </c>
       <c r="N8">
-        <v>0.869550885061938</v>
+        <v>1.931208</v>
       </c>
       <c r="O8">
-        <v>0.002051281565196635</v>
+        <v>0.002170982161762563</v>
       </c>
       <c r="P8">
-        <v>0.002051281565196635</v>
+        <v>0.001450469595059265</v>
       </c>
       <c r="Q8">
-        <v>160.3289306375374</v>
+        <v>192.578426348692</v>
       </c>
       <c r="R8">
-        <v>160.3289306375374</v>
+        <v>1155.470558092152</v>
       </c>
       <c r="S8">
-        <v>0.001630327706336056</v>
+        <v>0.00170798419933067</v>
       </c>
       <c r="T8">
-        <v>0.001630327706336056</v>
+        <v>0.001194071252348278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>184.381309238869</v>
+        <v>199.4383063333333</v>
       </c>
       <c r="H9">
-        <v>184.381309238869</v>
+        <v>598.314919</v>
       </c>
       <c r="I9">
-        <v>0.7947849451763456</v>
+        <v>0.7867334100727953</v>
       </c>
       <c r="J9">
-        <v>0.7947849451763456</v>
+        <v>0.8232308049859459</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.13757703897734</v>
+        <v>1.140421</v>
       </c>
       <c r="N9">
-        <v>1.13757703897734</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O9">
-        <v>0.002683558661295569</v>
+        <v>0.002564025882141566</v>
       </c>
       <c r="P9">
-        <v>0.002683558661295569</v>
+        <v>0.00256960304545199</v>
       </c>
       <c r="Q9">
-        <v>209.7479438067179</v>
+        <v>227.4436327469664</v>
       </c>
       <c r="R9">
-        <v>209.7479438067179</v>
+        <v>2046.992694722697</v>
       </c>
       <c r="S9">
-        <v>0.002132852023495306</v>
+        <v>0.002017204825772141</v>
       </c>
       <c r="T9">
-        <v>0.002132852023495306</v>
+        <v>0.00211537638360178</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>184.381309238869</v>
+        <v>199.4383063333333</v>
       </c>
       <c r="H10">
-        <v>184.381309238869</v>
+        <v>598.314919</v>
       </c>
       <c r="I10">
-        <v>0.7947849451763456</v>
+        <v>0.7867334100727953</v>
       </c>
       <c r="J10">
-        <v>0.7947849451763456</v>
+        <v>0.8232308049859459</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.86845094668</v>
+        <v>181.6731516666667</v>
       </c>
       <c r="N10">
-        <v>161.86845094668</v>
+        <v>545.019455</v>
       </c>
       <c r="O10">
-        <v>0.3818497285414291</v>
+        <v>0.408458510465489</v>
       </c>
       <c r="P10">
-        <v>0.3818497285414291</v>
+        <v>0.4093469725649807</v>
       </c>
       <c r="Q10">
-        <v>29845.5169100165</v>
+        <v>36232.58567463879</v>
       </c>
       <c r="R10">
-        <v>29845.5169100165</v>
+        <v>326093.2710717492</v>
       </c>
       <c r="S10">
-        <v>0.3034884155644022</v>
+        <v>0.3213479568117687</v>
       </c>
       <c r="T10">
-        <v>0.3034884155644022</v>
+        <v>0.336987037743229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>184.381309238869</v>
+        <v>199.4383063333333</v>
       </c>
       <c r="H11">
-        <v>184.381309238869</v>
+        <v>598.314919</v>
       </c>
       <c r="I11">
-        <v>0.7947849451763456</v>
+        <v>0.7867334100727953</v>
       </c>
       <c r="J11">
-        <v>0.7947849451763456</v>
+        <v>0.8232308049859459</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>255.805312449944</v>
+        <v>256.3297323333333</v>
       </c>
       <c r="N11">
-        <v>255.805312449944</v>
+        <v>768.9891969999999</v>
       </c>
       <c r="O11">
-        <v>0.6034479761015469</v>
+        <v>0.5763100364383734</v>
       </c>
       <c r="P11">
-        <v>0.6034479761015469</v>
+        <v>0.5775636022518233</v>
       </c>
       <c r="Q11">
-        <v>47165.71841977863</v>
+        <v>51121.96767943667</v>
       </c>
       <c r="R11">
-        <v>47165.71841977863</v>
+        <v>460097.70911493</v>
       </c>
       <c r="S11">
-        <v>0.4796113666026446</v>
+        <v>0.4534023602263385</v>
       </c>
       <c r="T11">
-        <v>0.4796113666026446</v>
+        <v>0.4754681492123512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>184.381309238869</v>
+        <v>199.4383063333333</v>
       </c>
       <c r="H12">
-        <v>184.381309238869</v>
+        <v>598.314919</v>
       </c>
       <c r="I12">
-        <v>0.7947849451763456</v>
+        <v>0.7867334100727953</v>
       </c>
       <c r="J12">
-        <v>0.7947849451763456</v>
+        <v>0.8232308049859459</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.52454217162138</v>
+        <v>2.738101</v>
       </c>
       <c r="N12">
-        <v>2.52454217162138</v>
+        <v>8.214303000000001</v>
       </c>
       <c r="O12">
-        <v>0.005955426998202121</v>
+        <v>0.006156114129709733</v>
       </c>
       <c r="P12">
-        <v>0.005955426998202121</v>
+        <v>0.006169504655171326</v>
       </c>
       <c r="Q12">
-        <v>465.4783908322876</v>
+        <v>546.0822260096064</v>
       </c>
       <c r="R12">
-        <v>465.4783908322876</v>
+        <v>4914.740034086458</v>
       </c>
       <c r="S12">
-        <v>0.004733283720267802</v>
+        <v>0.004843220662063857</v>
       </c>
       <c r="T12">
-        <v>0.004733283720267802</v>
+        <v>0.005078926283641231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>184.381309238869</v>
+        <v>199.4383063333333</v>
       </c>
       <c r="H13">
-        <v>184.381309238869</v>
+        <v>598.314919</v>
       </c>
       <c r="I13">
-        <v>0.7947849451763456</v>
+        <v>0.7867334100727953</v>
       </c>
       <c r="J13">
-        <v>0.7947849451763456</v>
+        <v>0.8232308049859459</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.70072342702804</v>
+        <v>1.9304815</v>
       </c>
       <c r="N13">
-        <v>1.70072342702804</v>
+        <v>3.860963</v>
       </c>
       <c r="O13">
-        <v>0.004012028132329674</v>
+        <v>0.004340330922523763</v>
       </c>
       <c r="P13">
-        <v>0.004012028132329674</v>
+        <v>0.00289984788751331</v>
       </c>
       <c r="Q13">
-        <v>313.5816121286461</v>
+        <v>385.0119607678328</v>
       </c>
       <c r="R13">
-        <v>313.5816121286461</v>
+        <v>2310.071764606997</v>
       </c>
       <c r="S13">
-        <v>0.003188699559199596</v>
+        <v>0.003414683347521521</v>
       </c>
       <c r="T13">
-        <v>0.003188699559199596</v>
+        <v>0.002387244110774377</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.32978664734303</v>
+        <v>4.803291000000001</v>
       </c>
       <c r="H14">
-        <v>4.32978664734303</v>
+        <v>14.409873</v>
       </c>
       <c r="I14">
-        <v>0.01866376400807312</v>
+        <v>0.01894776172881275</v>
       </c>
       <c r="J14">
-        <v>0.01866376400807312</v>
+        <v>0.01982676843385757</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.869550885061938</v>
+        <v>0.9656039999999999</v>
       </c>
       <c r="N14">
-        <v>0.869550885061938</v>
+        <v>1.931208</v>
       </c>
       <c r="O14">
-        <v>0.002051281565196635</v>
+        <v>0.002170982161762563</v>
       </c>
       <c r="P14">
-        <v>0.002051281565196635</v>
+        <v>0.001450469595059265</v>
       </c>
       <c r="Q14">
-        <v>3.764969811326493</v>
+        <v>4.638077002764001</v>
       </c>
       <c r="R14">
-        <v>3.764969811326493</v>
+        <v>27.828462016584</v>
       </c>
       <c r="S14">
-        <v>3.828463504694084E-05</v>
+        <v>4.113525271857987E-05</v>
       </c>
       <c r="T14">
-        <v>3.828463504694084E-05</v>
+        <v>2.87581247815912E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.32978664734303</v>
+        <v>4.803291000000001</v>
       </c>
       <c r="H15">
-        <v>4.32978664734303</v>
+        <v>14.409873</v>
       </c>
       <c r="I15">
-        <v>0.01866376400807312</v>
+        <v>0.01894776172881275</v>
       </c>
       <c r="J15">
-        <v>0.01866376400807312</v>
+        <v>0.01982676843385757</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.13757703897734</v>
+        <v>1.140421</v>
       </c>
       <c r="N15">
-        <v>1.13757703897734</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O15">
-        <v>0.002683558661295569</v>
+        <v>0.002564025882141566</v>
       </c>
       <c r="P15">
-        <v>0.002683558661295569</v>
+        <v>0.00256960304545199</v>
       </c>
       <c r="Q15">
-        <v>4.925465873688109</v>
+        <v>5.477773925511001</v>
       </c>
       <c r="R15">
-        <v>4.925465873688109</v>
+        <v>49.29996532959901</v>
       </c>
       <c r="S15">
-        <v>5.008530555624112E-05</v>
+        <v>4.858255148132732E-05</v>
       </c>
       <c r="T15">
-        <v>5.008530555624112E-05</v>
+        <v>5.094692454911179E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.32978664734303</v>
+        <v>4.803291000000001</v>
       </c>
       <c r="H16">
-        <v>4.32978664734303</v>
+        <v>14.409873</v>
       </c>
       <c r="I16">
-        <v>0.01866376400807312</v>
+        <v>0.01894776172881275</v>
       </c>
       <c r="J16">
-        <v>0.01866376400807312</v>
+        <v>0.01982676843385757</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>161.86845094668</v>
+        <v>181.6731516666667</v>
       </c>
       <c r="N16">
-        <v>161.86845094668</v>
+        <v>545.019455</v>
       </c>
       <c r="O16">
-        <v>0.3818497285414291</v>
+        <v>0.408458510465489</v>
       </c>
       <c r="P16">
-        <v>0.3818497285414291</v>
+        <v>0.4093469725649807</v>
       </c>
       <c r="Q16">
-        <v>700.8558575350354</v>
+        <v>872.6290143421351</v>
       </c>
       <c r="R16">
-        <v>700.8558575350354</v>
+        <v>7853.661129079215</v>
       </c>
       <c r="S16">
-        <v>0.007126753220044016</v>
+        <v>0.007739374532405856</v>
       </c>
       <c r="T16">
-        <v>0.007126753220044016</v>
+        <v>0.008116027634146518</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.32978664734303</v>
+        <v>4.803291000000001</v>
       </c>
       <c r="H17">
-        <v>4.32978664734303</v>
+        <v>14.409873</v>
       </c>
       <c r="I17">
-        <v>0.01866376400807312</v>
+        <v>0.01894776172881275</v>
       </c>
       <c r="J17">
-        <v>0.01866376400807312</v>
+        <v>0.01982676843385757</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>255.805312449944</v>
+        <v>256.3297323333333</v>
       </c>
       <c r="N17">
-        <v>255.805312449944</v>
+        <v>768.9891969999999</v>
       </c>
       <c r="O17">
-        <v>0.6034479761015469</v>
+        <v>0.5763100364383734</v>
       </c>
       <c r="P17">
-        <v>0.6034479761015469</v>
+        <v>0.5775636022518233</v>
       </c>
       <c r="Q17">
-        <v>1107.582426165179</v>
+        <v>1231.226296349109</v>
       </c>
       <c r="R17">
-        <v>1107.582426165179</v>
+        <v>11081.03666714198</v>
       </c>
       <c r="S17">
-        <v>0.01126261061710862</v>
+        <v>0.0109197852523577</v>
       </c>
       <c r="T17">
-        <v>0.01126261061710862</v>
+        <v>0.01145121979767152</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.32978664734303</v>
+        <v>4.803291000000001</v>
       </c>
       <c r="H18">
-        <v>4.32978664734303</v>
+        <v>14.409873</v>
       </c>
       <c r="I18">
-        <v>0.01866376400807312</v>
+        <v>0.01894776172881275</v>
       </c>
       <c r="J18">
-        <v>0.01866376400807312</v>
+        <v>0.01982676843385757</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.52454217162138</v>
+        <v>2.738101</v>
       </c>
       <c r="N18">
-        <v>2.52454217162138</v>
+        <v>8.214303000000001</v>
       </c>
       <c r="O18">
-        <v>0.005955426998202121</v>
+        <v>0.006156114129709733</v>
       </c>
       <c r="P18">
-        <v>0.005955426998202121</v>
+        <v>0.006169504655171326</v>
       </c>
       <c r="Q18">
-        <v>10.93072898534063</v>
+        <v>13.151895890391</v>
       </c>
       <c r="R18">
-        <v>10.93072898534063</v>
+        <v>118.367063013519</v>
       </c>
       <c r="S18">
-        <v>0.0001111506840617517</v>
+        <v>0.0001166445837051175</v>
       </c>
       <c r="T18">
-        <v>0.0001111506840617517</v>
+        <v>0.0001223213401496882</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.32978664734303</v>
+        <v>4.803291000000001</v>
       </c>
       <c r="H19">
-        <v>4.32978664734303</v>
+        <v>14.409873</v>
       </c>
       <c r="I19">
-        <v>0.01866376400807312</v>
+        <v>0.01894776172881275</v>
       </c>
       <c r="J19">
-        <v>0.01866376400807312</v>
+        <v>0.01982676843385757</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.70072342702804</v>
+        <v>1.9304815</v>
       </c>
       <c r="N19">
-        <v>1.70072342702804</v>
+        <v>3.860963</v>
       </c>
       <c r="O19">
-        <v>0.004012028132329674</v>
+        <v>0.004340330922523763</v>
       </c>
       <c r="P19">
-        <v>0.004012028132329674</v>
+        <v>0.00289984788751331</v>
       </c>
       <c r="Q19">
-        <v>7.363769585169486</v>
+        <v>9.272664414616502</v>
       </c>
       <c r="R19">
-        <v>7.363769585169486</v>
+        <v>55.635986487699</v>
       </c>
       <c r="S19">
-        <v>7.48795462555514E-05</v>
+        <v>8.223955614417831E-05</v>
       </c>
       <c r="T19">
-        <v>7.48795462555514E-05</v>
+        <v>5.749461255913745E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.40488227485479</v>
+        <v>3.406546333333333</v>
       </c>
       <c r="H20">
-        <v>3.40488227485479</v>
+        <v>10.219639</v>
       </c>
       <c r="I20">
-        <v>0.01467691700055408</v>
+        <v>0.01343795914970813</v>
       </c>
       <c r="J20">
-        <v>0.01467691700055408</v>
+        <v>0.01406136028614684</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.869550885061938</v>
+        <v>0.9656039999999999</v>
       </c>
       <c r="N20">
-        <v>0.869550885061938</v>
+        <v>1.931208</v>
       </c>
       <c r="O20">
-        <v>0.002051281565196635</v>
+        <v>0.002170982161762563</v>
       </c>
       <c r="P20">
-        <v>0.002051281565196635</v>
+        <v>0.001450469595059265</v>
       </c>
       <c r="Q20">
-        <v>2.960718395631687</v>
+        <v>3.289374765651999</v>
       </c>
       <c r="R20">
-        <v>2.960718395631687</v>
+        <v>19.73624859391199</v>
       </c>
       <c r="S20">
-        <v>3.010648927715766E-05</v>
+        <v>2.917356960451038E-05</v>
       </c>
       <c r="T20">
-        <v>3.010648927715766E-05</v>
+        <v>2.039557556022984E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.40488227485479</v>
+        <v>3.406546333333333</v>
       </c>
       <c r="H21">
-        <v>3.40488227485479</v>
+        <v>10.219639</v>
       </c>
       <c r="I21">
-        <v>0.01467691700055408</v>
+        <v>0.01343795914970813</v>
       </c>
       <c r="J21">
-        <v>0.01467691700055408</v>
+        <v>0.01406136028614684</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.13757703897734</v>
+        <v>1.140421</v>
       </c>
       <c r="N21">
-        <v>1.13757703897734</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O21">
-        <v>0.002683558661295569</v>
+        <v>0.002564025882141566</v>
       </c>
       <c r="P21">
-        <v>0.002683558661295569</v>
+        <v>0.00256960304545199</v>
       </c>
       <c r="Q21">
-        <v>3.873315896295741</v>
+        <v>3.884896976006333</v>
       </c>
       <c r="R21">
-        <v>3.873315896295741</v>
+        <v>34.964072784057</v>
       </c>
       <c r="S21">
-        <v>3.938636773795307E-05</v>
+        <v>3.445527506301272E-05</v>
       </c>
       <c r="T21">
-        <v>3.938636773795307E-05</v>
+        <v>3.61321142144806E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.40488227485479</v>
+        <v>3.406546333333333</v>
       </c>
       <c r="H22">
-        <v>3.40488227485479</v>
+        <v>10.219639</v>
       </c>
       <c r="I22">
-        <v>0.01467691700055408</v>
+        <v>0.01343795914970813</v>
       </c>
       <c r="J22">
-        <v>0.01467691700055408</v>
+        <v>0.01406136028614684</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>161.86845094668</v>
+        <v>181.6731516666667</v>
       </c>
       <c r="N22">
-        <v>161.86845094668</v>
+        <v>545.019455</v>
       </c>
       <c r="O22">
-        <v>0.3818497285414291</v>
+        <v>0.408458510465489</v>
       </c>
       <c r="P22">
-        <v>0.3818497285414291</v>
+        <v>0.4093469725649807</v>
       </c>
       <c r="Q22">
-        <v>551.1430194865528</v>
+        <v>618.8780086751938</v>
       </c>
       <c r="R22">
-        <v>551.1430194865528</v>
+        <v>5569.902078076744</v>
       </c>
       <c r="S22">
-        <v>0.00560437677248666</v>
+        <v>0.005488848777985873</v>
       </c>
       <c r="T22">
-        <v>0.00560437677248666</v>
+        <v>0.005755975263279661</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.40488227485479</v>
+        <v>3.406546333333333</v>
       </c>
       <c r="H23">
-        <v>3.40488227485479</v>
+        <v>10.219639</v>
       </c>
       <c r="I23">
-        <v>0.01467691700055408</v>
+        <v>0.01343795914970813</v>
       </c>
       <c r="J23">
-        <v>0.01467691700055408</v>
+        <v>0.01406136028614684</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>255.805312449944</v>
+        <v>256.3297323333333</v>
       </c>
       <c r="N23">
-        <v>255.805312449944</v>
+        <v>768.9891969999999</v>
       </c>
       <c r="O23">
-        <v>0.6034479761015469</v>
+        <v>0.5763100364383734</v>
       </c>
       <c r="P23">
-        <v>0.6034479761015469</v>
+        <v>0.5775636022518233</v>
       </c>
       <c r="Q23">
-        <v>870.9869741745057</v>
+        <v>873.1991098044313</v>
       </c>
       <c r="R23">
-        <v>870.9869741745057</v>
+        <v>7858.791988239881</v>
       </c>
       <c r="S23">
-        <v>0.008856755859394744</v>
+        <v>0.007744430727225669</v>
       </c>
       <c r="T23">
-        <v>0.008856755859394744</v>
+        <v>0.008121329899427701</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.40488227485479</v>
+        <v>3.406546333333333</v>
       </c>
       <c r="H24">
-        <v>3.40488227485479</v>
+        <v>10.219639</v>
       </c>
       <c r="I24">
-        <v>0.01467691700055408</v>
+        <v>0.01343795914970813</v>
       </c>
       <c r="J24">
-        <v>0.01467691700055408</v>
+        <v>0.01406136028614684</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.52454217162138</v>
+        <v>2.738101</v>
       </c>
       <c r="N24">
-        <v>2.52454217162138</v>
+        <v>8.214303000000001</v>
       </c>
       <c r="O24">
-        <v>0.005955426998202121</v>
+        <v>0.006156114129709733</v>
       </c>
       <c r="P24">
-        <v>0.005955426998202121</v>
+        <v>0.006169504655171326</v>
       </c>
       <c r="Q24">
-        <v>8.595768892277055</v>
+        <v>9.327467921846333</v>
       </c>
       <c r="R24">
-        <v>8.595768892277055</v>
+        <v>83.947211296617</v>
       </c>
       <c r="S24">
-        <v>8.740730775547146E-05</v>
+        <v>8.272561019598043E-05</v>
       </c>
       <c r="T24">
-        <v>8.740730775547146E-05</v>
+        <v>8.675162774342416E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.40488227485479</v>
+        <v>3.406546333333333</v>
       </c>
       <c r="H25">
-        <v>3.40488227485479</v>
+        <v>10.219639</v>
       </c>
       <c r="I25">
-        <v>0.01467691700055408</v>
+        <v>0.01343795914970813</v>
       </c>
       <c r="J25">
-        <v>0.01467691700055408</v>
+        <v>0.01406136028614684</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.70072342702804</v>
+        <v>1.9304815</v>
       </c>
       <c r="N25">
-        <v>1.70072342702804</v>
+        <v>3.860963</v>
       </c>
       <c r="O25">
-        <v>0.004012028132329674</v>
+        <v>0.004340330922523763</v>
       </c>
       <c r="P25">
-        <v>0.004012028132329674</v>
+        <v>0.00289984788751331</v>
       </c>
       <c r="Q25">
-        <v>5.790763051118067</v>
+        <v>6.576274675392833</v>
       </c>
       <c r="R25">
-        <v>5.790763051118067</v>
+        <v>39.45764805235699</v>
       </c>
       <c r="S25">
-        <v>5.888420390209061E-05</v>
+        <v>5.832518963308935E-05</v>
       </c>
       <c r="T25">
-        <v>5.888420390209061E-05</v>
+        <v>4.077580592134649E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.7500544326839</v>
+        <v>12.13711866666667</v>
       </c>
       <c r="H26">
-        <v>11.7500544326839</v>
+        <v>36.411356</v>
       </c>
       <c r="I26">
-        <v>0.05064920303826038</v>
+        <v>0.04787784720316247</v>
       </c>
       <c r="J26">
-        <v>0.05064920303826038</v>
+        <v>0.05009895116874036</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.869550885061938</v>
+        <v>0.9656039999999999</v>
       </c>
       <c r="N26">
-        <v>0.869550885061938</v>
+        <v>1.931208</v>
       </c>
       <c r="O26">
-        <v>0.002051281565196635</v>
+        <v>0.002170982161762563</v>
       </c>
       <c r="P26">
-        <v>0.002051281565196635</v>
+        <v>0.001450469595059265</v>
       </c>
       <c r="Q26">
-        <v>10.21727023146623</v>
+        <v>11.719650333008</v>
       </c>
       <c r="R26">
-        <v>10.21727023146623</v>
+        <v>70.31790199804799</v>
       </c>
       <c r="S26">
-        <v>0.0001038957764842849</v>
+        <v>0.0001039419522216594</v>
       </c>
       <c r="T26">
-        <v>0.0001038957764842849</v>
+        <v>7.266700541461673E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.7500544326839</v>
+        <v>12.13711866666667</v>
       </c>
       <c r="H27">
-        <v>11.7500544326839</v>
+        <v>36.411356</v>
       </c>
       <c r="I27">
-        <v>0.05064920303826038</v>
+        <v>0.04787784720316247</v>
       </c>
       <c r="J27">
-        <v>0.05064920303826038</v>
+        <v>0.05009895116874036</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.13757703897734</v>
+        <v>1.140421</v>
       </c>
       <c r="N27">
-        <v>1.13757703897734</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O27">
-        <v>0.002683558661295569</v>
+        <v>0.002564025882141566</v>
       </c>
       <c r="P27">
-        <v>0.002683558661295569</v>
+        <v>0.00256960304545199</v>
       </c>
       <c r="Q27">
-        <v>13.36659212935512</v>
+        <v>13.84142500695867</v>
       </c>
       <c r="R27">
-        <v>13.36659212935512</v>
+        <v>124.572825062628</v>
       </c>
       <c r="S27">
-        <v>0.0001359201075010415</v>
+        <v>0.0001227600394101277</v>
       </c>
       <c r="T27">
-        <v>0.0001359201075010415</v>
+        <v>0.0001287344174971458</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.7500544326839</v>
+        <v>12.13711866666667</v>
       </c>
       <c r="H28">
-        <v>11.7500544326839</v>
+        <v>36.411356</v>
       </c>
       <c r="I28">
-        <v>0.05064920303826038</v>
+        <v>0.04787784720316247</v>
       </c>
       <c r="J28">
-        <v>0.05064920303826038</v>
+        <v>0.05009895116874036</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>161.86845094668</v>
+        <v>181.6731516666667</v>
       </c>
       <c r="N28">
-        <v>161.86845094668</v>
+        <v>545.019455</v>
       </c>
       <c r="O28">
-        <v>0.3818497285414291</v>
+        <v>0.408458510465489</v>
       </c>
       <c r="P28">
-        <v>0.3818497285414291</v>
+        <v>0.4093469725649807</v>
       </c>
       <c r="Q28">
-        <v>1901.963109557714</v>
+        <v>2204.988600325664</v>
       </c>
       <c r="R28">
-        <v>1901.963109557714</v>
+        <v>19844.89740293098</v>
       </c>
       <c r="S28">
-        <v>0.01934038443099945</v>
+        <v>0.01955611415289802</v>
       </c>
       <c r="T28">
-        <v>0.01934038443099945</v>
+        <v>0.02050785398960467</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.7500544326839</v>
+        <v>12.13711866666667</v>
       </c>
       <c r="H29">
-        <v>11.7500544326839</v>
+        <v>36.411356</v>
       </c>
       <c r="I29">
-        <v>0.05064920303826038</v>
+        <v>0.04787784720316247</v>
       </c>
       <c r="J29">
-        <v>0.05064920303826038</v>
+        <v>0.05009895116874036</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>255.805312449944</v>
+        <v>256.3297323333333</v>
       </c>
       <c r="N29">
-        <v>255.805312449944</v>
+        <v>768.9891969999999</v>
       </c>
       <c r="O29">
-        <v>0.6034479761015469</v>
+        <v>0.5763100364383734</v>
       </c>
       <c r="P29">
-        <v>0.6034479761015469</v>
+        <v>0.5775636022518233</v>
       </c>
       <c r="Q29">
-        <v>3005.726345456555</v>
+        <v>3111.10437912457</v>
       </c>
       <c r="R29">
-        <v>3005.726345456555</v>
+        <v>27999.93941212113</v>
       </c>
       <c r="S29">
-        <v>0.03056415906459455</v>
+        <v>0.02759248386624544</v>
       </c>
       <c r="T29">
-        <v>0.03056415906459455</v>
+        <v>0.02893533070605588</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.7500544326839</v>
+        <v>12.13711866666667</v>
       </c>
       <c r="H30">
-        <v>11.7500544326839</v>
+        <v>36.411356</v>
       </c>
       <c r="I30">
-        <v>0.05064920303826038</v>
+        <v>0.04787784720316247</v>
       </c>
       <c r="J30">
-        <v>0.05064920303826038</v>
+        <v>0.05009895116874036</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.52454217162138</v>
+        <v>2.738101</v>
       </c>
       <c r="N30">
-        <v>2.52454217162138</v>
+        <v>8.214303000000001</v>
       </c>
       <c r="O30">
-        <v>0.005955426998202121</v>
+        <v>0.006156114129709733</v>
       </c>
       <c r="P30">
-        <v>0.005955426998202121</v>
+        <v>0.006169504655171326</v>
       </c>
       <c r="Q30">
-        <v>29.66350793415723</v>
+        <v>33.23265675831867</v>
       </c>
       <c r="R30">
-        <v>29.66350793415723</v>
+        <v>299.093910824868</v>
       </c>
       <c r="S30">
-        <v>0.0003016376312114767</v>
+        <v>0.0002947414916674721</v>
       </c>
       <c r="T30">
-        <v>0.0003016376312114767</v>
+        <v>0.0003090857124547446</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.7500544326839</v>
+        <v>12.13711866666667</v>
       </c>
       <c r="H31">
-        <v>11.7500544326839</v>
+        <v>36.411356</v>
       </c>
       <c r="I31">
-        <v>0.05064920303826038</v>
+        <v>0.04787784720316247</v>
       </c>
       <c r="J31">
-        <v>0.05064920303826038</v>
+        <v>0.05009895116874036</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.70072342702804</v>
+        <v>1.9304815</v>
       </c>
       <c r="N31">
-        <v>1.70072342702804</v>
+        <v>3.860963</v>
       </c>
       <c r="O31">
-        <v>0.004012028132329674</v>
+        <v>0.004340330922523763</v>
       </c>
       <c r="P31">
-        <v>0.004012028132329674</v>
+        <v>0.00289984788751331</v>
       </c>
       <c r="Q31">
-        <v>19.98359284252017</v>
+        <v>23.43048304930467</v>
       </c>
       <c r="R31">
-        <v>19.98359284252017</v>
+        <v>140.582898295828</v>
       </c>
       <c r="S31">
-        <v>0.0002032060274695782</v>
+        <v>0.000207805700719754</v>
       </c>
       <c r="T31">
-        <v>0.0002032060274695782</v>
+        <v>0.0001452793377133042</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>13.5797065130297</v>
+        <v>19.1586715</v>
       </c>
       <c r="H32">
-        <v>13.5797065130297</v>
+        <v>38.317343</v>
       </c>
       <c r="I32">
-        <v>0.05853601073244759</v>
+        <v>0.07557608785780325</v>
       </c>
       <c r="J32">
-        <v>0.05853601073244759</v>
+        <v>0.05272142833331656</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.869550885061938</v>
+        <v>0.9656039999999999</v>
       </c>
       <c r="N32">
-        <v>0.869550885061938</v>
+        <v>1.931208</v>
       </c>
       <c r="O32">
-        <v>0.002051281565196635</v>
+        <v>0.002170982161762563</v>
       </c>
       <c r="P32">
-        <v>0.002051281565196635</v>
+        <v>0.001450469595059265</v>
       </c>
       <c r="Q32">
-        <v>11.80824581728634</v>
+        <v>18.499689835086</v>
       </c>
       <c r="R32">
-        <v>11.80824581728634</v>
+        <v>73.99875934034399</v>
       </c>
       <c r="S32">
-        <v>0.0001200738397156221</v>
+        <v>0.0001640743385950911</v>
       </c>
       <c r="T32">
-        <v>0.0001200738397156221</v>
+        <v>7.647082880557172E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>13.5797065130297</v>
+        <v>19.1586715</v>
       </c>
       <c r="H33">
-        <v>13.5797065130297</v>
+        <v>38.317343</v>
       </c>
       <c r="I33">
-        <v>0.05853601073244759</v>
+        <v>0.07557608785780325</v>
       </c>
       <c r="J33">
-        <v>0.05853601073244759</v>
+        <v>0.05272142833331656</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.13757703897734</v>
+        <v>1.140421</v>
       </c>
       <c r="N33">
-        <v>1.13757703897734</v>
+        <v>3.421263000000001</v>
       </c>
       <c r="O33">
-        <v>0.002683558661295569</v>
+        <v>0.002564025882141566</v>
       </c>
       <c r="P33">
-        <v>0.002683558661295569</v>
+        <v>0.00256960304545199</v>
       </c>
       <c r="Q33">
-        <v>15.44796232527363</v>
+        <v>21.8489513107015</v>
       </c>
       <c r="R33">
-        <v>15.44796232527363</v>
+        <v>131.093707864209</v>
       </c>
       <c r="S33">
-        <v>0.0001570848185987501</v>
+        <v>0.0001937790453384124</v>
       </c>
       <c r="T33">
-        <v>0.0001570848185987501</v>
+        <v>0.0001354731428058691</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>13.5797065130297</v>
+        <v>19.1586715</v>
       </c>
       <c r="H34">
-        <v>13.5797065130297</v>
+        <v>38.317343</v>
       </c>
       <c r="I34">
-        <v>0.05853601073244759</v>
+        <v>0.07557608785780325</v>
       </c>
       <c r="J34">
-        <v>0.05853601073244759</v>
+        <v>0.05272142833331656</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>161.86845094668</v>
+        <v>181.6731516666667</v>
       </c>
       <c r="N34">
-        <v>161.86845094668</v>
+        <v>545.019455</v>
       </c>
       <c r="O34">
-        <v>0.3818497285414291</v>
+        <v>0.408458510465489</v>
       </c>
       <c r="P34">
-        <v>0.3818497285414291</v>
+        <v>0.4093469725649807</v>
       </c>
       <c r="Q34">
-        <v>2198.126057574659</v>
+        <v>3480.616233151344</v>
       </c>
       <c r="R34">
-        <v>2198.126057574659</v>
+        <v>20883.69739890807</v>
       </c>
       <c r="S34">
-        <v>0.02235195980808329</v>
+        <v>0.03086969627320724</v>
       </c>
       <c r="T34">
-        <v>0.02235195980808329</v>
+        <v>0.02158135707754473</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>13.5797065130297</v>
+        <v>19.1586715</v>
       </c>
       <c r="H35">
-        <v>13.5797065130297</v>
+        <v>38.317343</v>
       </c>
       <c r="I35">
-        <v>0.05853601073244759</v>
+        <v>0.07557608785780325</v>
       </c>
       <c r="J35">
-        <v>0.05853601073244759</v>
+        <v>0.05272142833331656</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>255.805312449944</v>
+        <v>256.3297323333333</v>
       </c>
       <c r="N35">
-        <v>255.805312449944</v>
+        <v>768.9891969999999</v>
       </c>
       <c r="O35">
-        <v>0.6034479761015469</v>
+        <v>0.5763100364383734</v>
       </c>
       <c r="P35">
-        <v>0.6034479761015469</v>
+        <v>0.5775636022518233</v>
       </c>
       <c r="Q35">
-        <v>3473.761067544102</v>
+        <v>4910.937137457261</v>
       </c>
       <c r="R35">
-        <v>3473.761067544102</v>
+        <v>29465.62282474357</v>
       </c>
       <c r="S35">
-        <v>0.03532343720555393</v>
+        <v>0.0435552579472003</v>
       </c>
       <c r="T35">
-        <v>0.03532343720555393</v>
+        <v>0.03044997806405165</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>13.5797065130297</v>
+        <v>19.1586715</v>
       </c>
       <c r="H36">
-        <v>13.5797065130297</v>
+        <v>38.317343</v>
       </c>
       <c r="I36">
-        <v>0.05853601073244759</v>
+        <v>0.07557608785780325</v>
       </c>
       <c r="J36">
-        <v>0.05853601073244759</v>
+        <v>0.05272142833331656</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.52454217162138</v>
+        <v>2.738101</v>
       </c>
       <c r="N36">
-        <v>2.52454217162138</v>
+        <v>8.214303000000001</v>
       </c>
       <c r="O36">
-        <v>0.005955426998202121</v>
+        <v>0.006156114129709733</v>
       </c>
       <c r="P36">
-        <v>0.005955426998202121</v>
+        <v>0.006169504655171326</v>
       </c>
       <c r="Q36">
-        <v>34.282541770385</v>
+        <v>52.45837759282151</v>
       </c>
       <c r="R36">
-        <v>34.282541770385</v>
+        <v>314.750265556929</v>
       </c>
       <c r="S36">
-        <v>0.0003486069386830675</v>
+        <v>0.0004652550223296068</v>
       </c>
       <c r="T36">
-        <v>0.0003486069386830675</v>
+        <v>0.0003252650975296779</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>13.5797065130297</v>
+        <v>19.1586715</v>
       </c>
       <c r="H37">
-        <v>13.5797065130297</v>
+        <v>38.317343</v>
       </c>
       <c r="I37">
-        <v>0.05853601073244759</v>
+        <v>0.07557608785780325</v>
       </c>
       <c r="J37">
-        <v>0.05853601073244759</v>
+        <v>0.05272142833331656</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.70072342702804</v>
+        <v>1.9304815</v>
       </c>
       <c r="N37">
-        <v>1.70072342702804</v>
+        <v>3.860963</v>
       </c>
       <c r="O37">
-        <v>0.004012028132329674</v>
+        <v>0.004340330922523763</v>
       </c>
       <c r="P37">
-        <v>0.004012028132329674</v>
+        <v>0.00289984788751331</v>
       </c>
       <c r="Q37">
-        <v>23.09532499887487</v>
+        <v>36.98546089532725</v>
       </c>
       <c r="R37">
-        <v>23.09532499887487</v>
+        <v>147.941843581309</v>
       </c>
       <c r="S37">
-        <v>0.0002348481218129314</v>
+        <v>0.0003280252311325961</v>
       </c>
       <c r="T37">
-        <v>0.0002348481218129314</v>
+        <v>0.0001528841225790524</v>
       </c>
     </row>
   </sheetData>
